--- a/Doc/比赛分数点的整理.xlsx
+++ b/Doc/比赛分数点的整理.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\my1942Game\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0B056A-2AFE-4248-97A8-5A1FAFEFE062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
   <si>
     <t>一.内核的基本运行（5分）</t>
   </si>
@@ -70,9 +76,6 @@
     <t>图像识别/语音识别/手势识别/智能电机控制</t>
   </si>
   <si>
-    <t>手势识别比较合适</t>
-  </si>
-  <si>
     <t>采用手势识别模块</t>
   </si>
   <si>
@@ -80,19 +83,17 @@
   </si>
   <si>
     <t>五.现场答辩、演示（20分）</t>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,151 +102,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,194 +130,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -453,255 +139,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,62 +155,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1024,27 +433,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="41.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="32.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="77.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +461,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1061,13 +472,15 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1076,13 +489,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="4">
+        <v>0.1</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1091,13 +506,15 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4">
+        <v>0.24</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1106,11 +523,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4">
+        <v>0.85</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1119,13 +538,15 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4">
+        <v>0.72</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1134,7 +555,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -1142,7 +563,9 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="4">
+        <v>0.6</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1151,7 +574,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1159,7 +582,7 @@
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1168,7 +591,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -1176,7 +599,7 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1185,11 +608,11 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1198,13 +621,13 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1213,7 +636,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -1221,7 +644,7 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1230,13 +653,13 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1245,11 +668,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1258,13 +681,13 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1273,7 +696,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -1281,9 +704,7 @@
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1292,13 +713,13 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1307,11 +728,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1320,13 +741,13 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1335,11 +756,11 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1348,11 +769,11 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1361,11 +782,11 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1374,11 +795,11 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1387,11 +808,11 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1400,7 +821,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1413,7 +834,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1426,7 +847,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1439,7 +860,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1452,7 +873,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1465,7 +886,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1478,7 +899,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1491,7 +912,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1504,7 +925,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1518,7 +939,65 @@
       <c r="K33" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8FCB314A-8DBF-419E-B3F4-521330180021}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0074F48F-BC6D-4A07-B812-EBB83275FC39}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8FCB314A-8DBF-419E-B3F4-521330180021}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0074F48F-BC6D-4A07-B812-EBB83275FC39}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Doc/比赛分数点的整理.xlsx
+++ b/Doc/比赛分数点的整理.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\my1942Game\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0B056A-2AFE-4248-97A8-5A1FAFEFE062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>一.内核的基本运行（5分）</t>
   </si>
@@ -28,6 +22,9 @@
     <t>技术点分析</t>
   </si>
   <si>
+    <t>完成度</t>
+  </si>
+  <si>
     <t>正确编译下载程序</t>
   </si>
   <si>
@@ -83,17 +80,19 @@
   </si>
   <si>
     <t>五.现场答辩、演示（20分）</t>
-  </si>
-  <si>
-    <t>完成度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,9 +101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -112,12 +111,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +265,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,9 +460,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -152,12 +715,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -165,17 +728,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -433,27 +1040,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="41.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="77.77734375" customWidth="1"/>
+    <col min="4" max="4" width="77.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +1068,8 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -472,10 +1079,10 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="4">
@@ -489,10 +1096,10 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="4">
@@ -506,10 +1113,10 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="4">
@@ -523,7 +1130,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -538,9 +1145,9 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -555,13 +1162,13 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="4">
         <v>0.6</v>
@@ -574,13 +1181,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -591,13 +1198,13 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
@@ -608,7 +1215,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -621,9 +1228,9 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -636,13 +1243,13 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
@@ -653,11 +1260,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
@@ -668,7 +1275,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -681,9 +1288,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -696,13 +1303,13 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="1"/>
@@ -713,11 +1320,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="1"/>
@@ -728,7 +1335,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -741,9 +1348,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -756,7 +1363,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -769,7 +1376,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -782,7 +1389,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -795,7 +1402,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -808,7 +1415,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -821,7 +1428,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -834,7 +1441,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -847,7 +1454,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -860,7 +1467,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -873,7 +1480,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -886,7 +1493,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -899,7 +1506,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -912,7 +1519,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -925,7 +1532,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -939,7 +1546,6 @@
       <c r="K33" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -949,7 +1555,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8FCB314A-8DBF-419E-B3F4-521330180021}</x14:id>
+          <x14:id>{208a9841-51c4-4306-9dde-569eab4a9110}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -963,17 +1569,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0074F48F-BC6D-4A07-B812-EBB83275FC39}</x14:id>
+          <x14:id>{41fe8b61-795f-4d08-a832-f8aeaf13f255}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8FCB314A-8DBF-419E-B3F4-521330180021}">
+          <x14:cfRule type="dataBar" id="{208a9841-51c4-4306-9dde-569eab4a9110}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -984,7 +1591,7 @@
           <xm:sqref>D2:D4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0074F48F-BC6D-4A07-B812-EBB83275FC39}">
+          <x14:cfRule type="dataBar" id="{41fe8b61-795f-4d08-a832-f8aeaf13f255}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
